--- a/output files/TRC Heavy tank dia sweep files/sweep data.xlsx
+++ b/output files/TRC Heavy tank dia sweep files/sweep data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,83 +446,123 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tank Diameters</t>
+          <t>Step Diameters</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Thrust</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TWR Initial</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Engine exit dia</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Total Rocket Mass</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Rocket Height</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Stage 1 Mass</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Stage 2 Mass</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Stage 1 Structural Factor</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Stage 2 Structural Factor</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Boostback delta v stage 1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Boostback delta v stage 2</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Engine count (step 1)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Engine count (step 2)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="D2" t="n">
-        <v>2819123.505067639</v>
+        <v>2171390</v>
       </c>
       <c r="E2" t="n">
-        <v>107.1148633326212</v>
+        <v>1.4</v>
       </c>
       <c r="F2" t="n">
-        <v>2601362.834569732</v>
+        <v>1.23</v>
       </c>
       <c r="G2" t="n">
-        <v>217760.6704979067</v>
+        <v>3780518.414558016</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0574</v>
+        <v>107.6465219332719</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1123</v>
+        <v>3618475.846963029</v>
       </c>
       <c r="J2" t="n">
-        <v>1500</v>
+        <v>162042.5675949869</v>
       </c>
       <c r="K2" t="n">
-        <v>2000</v>
+        <v>0.0513</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1606</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,34 +570,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="n">
-        <v>3003012.600439399</v>
+        <v>2395000</v>
       </c>
       <c r="E3" t="n">
-        <v>99.50409236992897</v>
+        <v>1.4</v>
       </c>
       <c r="F3" t="n">
-        <v>2799036.312315071</v>
+        <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>203976.2881243279</v>
+        <v>3780518.414558016</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0556</v>
+        <v>107.6465219332719</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1247</v>
+        <v>3618475.846963029</v>
       </c>
       <c r="J3" t="n">
-        <v>1500</v>
+        <v>162042.5675949869</v>
       </c>
       <c r="K3" t="n">
-        <v>2000</v>
+        <v>0.0513</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1606</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -565,34 +620,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D4" t="n">
-        <v>3310191.848776617</v>
+        <v>2800000</v>
       </c>
       <c r="E4" t="n">
-        <v>96.27842585879621</v>
+        <v>1.4</v>
       </c>
       <c r="F4" t="n">
-        <v>3127659.764721037</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>182532.0840555803</v>
+        <v>3847056.419182586</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0527</v>
+        <v>109.4686628467739</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1464</v>
+        <v>3698244.801962647</v>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>148811.6172199391</v>
       </c>
       <c r="K4" t="n">
-        <v>2000</v>
+        <v>0.0488</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1717</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -600,34 +670,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="C5" t="n">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="D5" t="n">
-        <v>3783427.920514163</v>
+        <v>2171390</v>
       </c>
       <c r="E5" t="n">
-        <v>96.7662612985761</v>
+        <v>1.4</v>
       </c>
       <c r="F5" t="n">
-        <v>3618866.45654378</v>
+        <v>1.23</v>
       </c>
       <c r="G5" t="n">
-        <v>164561.4639703825</v>
+        <v>4072815.181880503</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0505</v>
+        <v>108.4868264070309</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1746</v>
+        <v>3917556.118302241</v>
       </c>
       <c r="J5" t="n">
-        <v>1500</v>
+        <v>155259.0635782623</v>
       </c>
       <c r="K5" t="n">
-        <v>2000</v>
+        <v>0.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1743</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -635,34 +720,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="D6" t="n">
-        <v>4550521.429181397</v>
+        <v>2395000</v>
       </c>
       <c r="E6" t="n">
-        <v>102.136518212023</v>
+        <v>1.4</v>
       </c>
       <c r="F6" t="n">
-        <v>4405704.250727546</v>
+        <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>144817.1784538509</v>
+        <v>4072815.181880503</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0481</v>
+        <v>108.4868264070309</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2156</v>
+        <v>3917556.118302241</v>
       </c>
       <c r="J6" t="n">
-        <v>1500</v>
+        <v>155259.0635782623</v>
       </c>
       <c r="K6" t="n">
-        <v>2000</v>
+        <v>0.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1743</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -670,34 +770,799 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="C7" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4163246.947544792</v>
+      </c>
+      <c r="H7" t="n">
+        <v>110.7222956744191</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4020395.909941998</v>
+      </c>
+      <c r="J7" t="n">
+        <v>142851.0376027937</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1864</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2171390</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4431780.797517795</v>
+      </c>
+      <c r="H8" t="n">
+        <v>110.469744949207</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4283202.788682872</v>
+      </c>
+      <c r="J8" t="n">
+        <v>148578.0088349226</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2395000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4431780.797517795</v>
+      </c>
+      <c r="H9" t="n">
+        <v>110.469744949207</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4283202.788682872</v>
+      </c>
+      <c r="J9" t="n">
+        <v>148578.0088349226</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4571917.080040828</v>
+      </c>
+      <c r="H10" t="n">
+        <v>113.6218753732697</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4436020.554591797</v>
+      </c>
+      <c r="J10" t="n">
+        <v>135896.5254490311</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0464</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2047</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>23</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2171390</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4858843.426230708</v>
+      </c>
+      <c r="H11" t="n">
+        <v>113.3890095085117</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4715715.237829252</v>
+      </c>
+      <c r="J11" t="n">
+        <v>143128.1884014556</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>31</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2395000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4858843.426230708</v>
+      </c>
+      <c r="H12" t="n">
+        <v>113.3890095085117</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4715715.237829252</v>
+      </c>
+      <c r="J12" t="n">
+        <v>143128.1884014556</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2065</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>28</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5104925.457941238</v>
+      </c>
+      <c r="H13" t="n">
+        <v>118.488522388827</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4977055.204443134</v>
+      </c>
+      <c r="J13" t="n">
+        <v>127870.2534981033</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.2274</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C14" t="n">
         <v>8.5</v>
       </c>
-      <c r="D7" t="n">
-        <v>6053350.11982432</v>
-      </c>
-      <c r="E7" t="n">
-        <v>117.9961643927228</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5931548.569755199</v>
-      </c>
-      <c r="G7" t="n">
-        <v>121801.5500691209</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0454</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2809</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1500</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2000</v>
+      <c r="D14" t="n">
+        <v>2171390</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5443828.498710256</v>
+      </c>
+      <c r="H14" t="n">
+        <v>118.7761231160407</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5308213.520022186</v>
+      </c>
+      <c r="J14" t="n">
+        <v>135614.9786880709</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>35</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2395000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5443828.498710256</v>
+      </c>
+      <c r="H15" t="n">
+        <v>118.7761231160407</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5308213.520022186</v>
+      </c>
+      <c r="J15" t="n">
+        <v>135614.9786880709</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>32</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5754564.868966291</v>
+      </c>
+      <c r="H16" t="n">
+        <v>124.753138226594</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5632327.813187371</v>
+      </c>
+      <c r="J16" t="n">
+        <v>122237.0557789197</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0438</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2501</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2171390</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6157802.997946491</v>
+      </c>
+      <c r="H17" t="n">
+        <v>125.6232566370581</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6027842.569096862</v>
+      </c>
+      <c r="J17" t="n">
+        <v>129960.4288496292</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>39</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2395000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6157802.997946491</v>
+      </c>
+      <c r="H18" t="n">
+        <v>125.6232566370581</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6027842.569096862</v>
+      </c>
+      <c r="J18" t="n">
+        <v>129960.4288496292</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6579644.563832727</v>
+      </c>
+      <c r="H19" t="n">
+        <v>133.2039618423134</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6462924.76463033</v>
+      </c>
+      <c r="J19" t="n">
+        <v>116719.7992023974</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2754</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O19" t="n">
+        <v>33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2171390</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7018964.403628038</v>
+      </c>
+      <c r="H20" t="n">
+        <v>133.9958164102094</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6895299.718880384</v>
+      </c>
+      <c r="J20" t="n">
+        <v>123664.6847476543</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2763</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>45</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2395000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G21" t="n">
+        <v>7018964.403628038</v>
+      </c>
+      <c r="H21" t="n">
+        <v>133.9958164102094</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6895299.718880384</v>
+      </c>
+      <c r="J21" t="n">
+        <v>123664.6847476543</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0436</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2763</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>41</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7825811.998415833</v>
+      </c>
+      <c r="H22" t="n">
+        <v>147.4946619139004</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7715639.964505017</v>
+      </c>
+      <c r="J22" t="n">
+        <v>110172.0339108169</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3081</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>39</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output files/TRC Heavy tank dia sweep files/sweep data.xlsx
+++ b/output files/TRC Heavy tank dia sweep files/sweep data.xlsx
@@ -535,22 +535,22 @@
         <v>1.23</v>
       </c>
       <c r="G2" t="n">
-        <v>3780518.414558016</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H2" t="n">
-        <v>107.6465219332719</v>
+        <v>64.11190241563072</v>
       </c>
       <c r="I2" t="n">
-        <v>3618475.846963029</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J2" t="n">
-        <v>162042.5675949869</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0513</v>
+        <v>0.0461</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1606</v>
+        <v>0.101</v>
       </c>
       <c r="M2" t="n">
         <v>1500</v>
@@ -559,7 +559,7 @@
         <v>2000</v>
       </c>
       <c r="O2" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -585,22 +585,22 @@
         <v>1.32</v>
       </c>
       <c r="G3" t="n">
-        <v>3780518.414558016</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H3" t="n">
-        <v>107.6465219332719</v>
+        <v>64.11190241563072</v>
       </c>
       <c r="I3" t="n">
-        <v>3618475.846963029</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J3" t="n">
-        <v>162042.5675949869</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0513</v>
+        <v>0.0461</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1606</v>
+        <v>0.101</v>
       </c>
       <c r="M3" t="n">
         <v>1500</v>
@@ -609,7 +609,7 @@
         <v>2000</v>
       </c>
       <c r="O3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -635,22 +635,22 @@
         <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>3847056.419182586</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H4" t="n">
-        <v>109.4686628467739</v>
+        <v>64.11190241563072</v>
       </c>
       <c r="I4" t="n">
-        <v>3698244.801962647</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J4" t="n">
-        <v>148811.6172199391</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0488</v>
+        <v>0.0461</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1717</v>
+        <v>0.101</v>
       </c>
       <c r="M4" t="n">
         <v>1500</v>
@@ -659,7 +659,7 @@
         <v>2000</v>
       </c>
       <c r="O4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>1.23</v>
       </c>
       <c r="G5" t="n">
-        <v>4072815.181880503</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H5" t="n">
-        <v>108.4868264070309</v>
+        <v>61.28830538310085</v>
       </c>
       <c r="I5" t="n">
-        <v>3917556.118302241</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J5" t="n">
-        <v>155259.0635782623</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05</v>
+        <v>0.0461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1743</v>
+        <v>0.101</v>
       </c>
       <c r="M5" t="n">
         <v>1500</v>
@@ -709,7 +709,7 @@
         <v>2000</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -735,22 +735,22 @@
         <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>4072815.181880503</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H6" t="n">
-        <v>108.4868264070309</v>
+        <v>61.28830538310085</v>
       </c>
       <c r="I6" t="n">
-        <v>3917556.118302241</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J6" t="n">
-        <v>155259.0635782623</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05</v>
+        <v>0.0461</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1743</v>
+        <v>0.101</v>
       </c>
       <c r="M6" t="n">
         <v>1500</v>
@@ -759,7 +759,7 @@
         <v>2000</v>
       </c>
       <c r="O6" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -785,22 +785,22 @@
         <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>4163246.947544792</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H7" t="n">
-        <v>110.7222956744191</v>
+        <v>61.28830538310085</v>
       </c>
       <c r="I7" t="n">
-        <v>4020395.909941998</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J7" t="n">
-        <v>142851.0376027937</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0477</v>
+        <v>0.0461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1864</v>
+        <v>0.101</v>
       </c>
       <c r="M7" t="n">
         <v>1500</v>
@@ -809,7 +809,7 @@
         <v>2000</v>
       </c>
       <c r="O7" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -835,22 +835,22 @@
         <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>4431780.797517795</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H8" t="n">
-        <v>110.469744949207</v>
+        <v>58.77510906724572</v>
       </c>
       <c r="I8" t="n">
-        <v>4283202.788682872</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J8" t="n">
-        <v>148578.0088349226</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0487</v>
+        <v>0.0461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.19</v>
+        <v>0.101</v>
       </c>
       <c r="M8" t="n">
         <v>1500</v>
@@ -859,7 +859,7 @@
         <v>2000</v>
       </c>
       <c r="O8" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -885,22 +885,22 @@
         <v>1.32</v>
       </c>
       <c r="G9" t="n">
-        <v>4431780.797517795</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H9" t="n">
-        <v>110.469744949207</v>
+        <v>58.77510906724572</v>
       </c>
       <c r="I9" t="n">
-        <v>4283202.788682872</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J9" t="n">
-        <v>148578.0088349226</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0487</v>
+        <v>0.0461</v>
       </c>
       <c r="L9" t="n">
-        <v>0.19</v>
+        <v>0.101</v>
       </c>
       <c r="M9" t="n">
         <v>1500</v>
@@ -909,7 +909,7 @@
         <v>2000</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -935,22 +935,22 @@
         <v>1.41</v>
       </c>
       <c r="G10" t="n">
-        <v>4571917.080040828</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H10" t="n">
-        <v>113.6218753732697</v>
+        <v>58.77510906724572</v>
       </c>
       <c r="I10" t="n">
-        <v>4436020.554591797</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J10" t="n">
-        <v>135896.5254490311</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0464</v>
+        <v>0.0461</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2047</v>
+        <v>0.101</v>
       </c>
       <c r="M10" t="n">
         <v>1500</v>
@@ -959,7 +959,7 @@
         <v>2000</v>
       </c>
       <c r="O10" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -985,22 +985,22 @@
         <v>1.23</v>
       </c>
       <c r="G11" t="n">
-        <v>4858843.426230708</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H11" t="n">
-        <v>113.3890095085117</v>
+        <v>56.53291518611289</v>
       </c>
       <c r="I11" t="n">
-        <v>4715715.237829252</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J11" t="n">
-        <v>143128.1884014556</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0476</v>
+        <v>0.0461</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2065</v>
+        <v>0.101</v>
       </c>
       <c r="M11" t="n">
         <v>1500</v>
@@ -1009,7 +1009,7 @@
         <v>2000</v>
       </c>
       <c r="O11" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1035,22 +1035,22 @@
         <v>1.32</v>
       </c>
       <c r="G12" t="n">
-        <v>4858843.426230708</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H12" t="n">
-        <v>113.3890095085117</v>
+        <v>56.53291518611289</v>
       </c>
       <c r="I12" t="n">
-        <v>4715715.237829252</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J12" t="n">
-        <v>143128.1884014556</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0476</v>
+        <v>0.0461</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2065</v>
+        <v>0.101</v>
       </c>
       <c r="M12" t="n">
         <v>1500</v>
@@ -1059,7 +1059,7 @@
         <v>2000</v>
       </c>
       <c r="O12" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1085,22 +1085,22 @@
         <v>1.41</v>
       </c>
       <c r="G13" t="n">
-        <v>5104925.457941238</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H13" t="n">
-        <v>118.488522388827</v>
+        <v>56.53291518611289</v>
       </c>
       <c r="I13" t="n">
-        <v>4977055.204443134</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J13" t="n">
-        <v>127870.2534981033</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0449</v>
+        <v>0.0461</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2274</v>
+        <v>0.101</v>
       </c>
       <c r="M13" t="n">
         <v>1500</v>
@@ -1109,7 +1109,7 @@
         <v>2000</v>
       </c>
       <c r="O13" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -1135,22 +1135,22 @@
         <v>1.23</v>
       </c>
       <c r="G14" t="n">
-        <v>5443828.498710256</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H14" t="n">
-        <v>118.7761231160407</v>
+        <v>54.5283836203006</v>
       </c>
       <c r="I14" t="n">
-        <v>5308213.520022186</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J14" t="n">
-        <v>135614.9786880709</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K14" t="n">
         <v>0.0461</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2286</v>
+        <v>0.101</v>
       </c>
       <c r="M14" t="n">
         <v>1500</v>
@@ -1159,7 +1159,7 @@
         <v>2000</v>
       </c>
       <c r="O14" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -1185,22 +1185,22 @@
         <v>1.32</v>
       </c>
       <c r="G15" t="n">
-        <v>5443828.498710256</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H15" t="n">
-        <v>118.7761231160407</v>
+        <v>54.5283836203006</v>
       </c>
       <c r="I15" t="n">
-        <v>5308213.520022186</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J15" t="n">
-        <v>135614.9786880709</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K15" t="n">
         <v>0.0461</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2286</v>
+        <v>0.101</v>
       </c>
       <c r="M15" t="n">
         <v>1500</v>
@@ -1209,7 +1209,7 @@
         <v>2000</v>
       </c>
       <c r="O15" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1235,22 +1235,22 @@
         <v>1.41</v>
       </c>
       <c r="G16" t="n">
-        <v>5754564.868966291</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H16" t="n">
-        <v>124.753138226594</v>
+        <v>54.5283836203006</v>
       </c>
       <c r="I16" t="n">
-        <v>5632327.813187371</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J16" t="n">
-        <v>122237.0557789197</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0438</v>
+        <v>0.0461</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2501</v>
+        <v>0.101</v>
       </c>
       <c r="M16" t="n">
         <v>1500</v>
@@ -1259,7 +1259,7 @@
         <v>2000</v>
       </c>
       <c r="O16" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -1285,22 +1285,22 @@
         <v>1.23</v>
       </c>
       <c r="G17" t="n">
-        <v>6157802.997946491</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H17" t="n">
-        <v>125.6232566370581</v>
+        <v>52.73314798945927</v>
       </c>
       <c r="I17" t="n">
-        <v>6027842.569096862</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J17" t="n">
-        <v>129960.4288496292</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0449</v>
+        <v>0.0461</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2512</v>
+        <v>0.101</v>
       </c>
       <c r="M17" t="n">
         <v>1500</v>
@@ -1309,7 +1309,7 @@
         <v>2000</v>
       </c>
       <c r="O17" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -1335,22 +1335,22 @@
         <v>1.32</v>
       </c>
       <c r="G18" t="n">
-        <v>6157802.997946491</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H18" t="n">
-        <v>125.6232566370581</v>
+        <v>52.73314798945927</v>
       </c>
       <c r="I18" t="n">
-        <v>6027842.569096862</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J18" t="n">
-        <v>129960.4288496292</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0449</v>
+        <v>0.0461</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2512</v>
+        <v>0.101</v>
       </c>
       <c r="M18" t="n">
         <v>1500</v>
@@ -1359,7 +1359,7 @@
         <v>2000</v>
       </c>
       <c r="O18" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -1385,22 +1385,22 @@
         <v>1.41</v>
       </c>
       <c r="G19" t="n">
-        <v>6579644.563832727</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H19" t="n">
-        <v>133.2039618423134</v>
+        <v>52.73314798945927</v>
       </c>
       <c r="I19" t="n">
-        <v>6462924.76463033</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J19" t="n">
-        <v>116719.7992023974</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0427</v>
+        <v>0.0461</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2754</v>
+        <v>0.101</v>
       </c>
       <c r="M19" t="n">
         <v>1500</v>
@@ -1409,7 +1409,7 @@
         <v>2000</v>
       </c>
       <c r="O19" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -1435,22 +1435,22 @@
         <v>1.23</v>
       </c>
       <c r="G20" t="n">
-        <v>7018964.403628038</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H20" t="n">
-        <v>133.9958164102094</v>
+        <v>51.12295111925128</v>
       </c>
       <c r="I20" t="n">
-        <v>6895299.718880384</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J20" t="n">
-        <v>123664.6847476543</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0436</v>
+        <v>0.0461</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2763</v>
+        <v>0.101</v>
       </c>
       <c r="M20" t="n">
         <v>1500</v>
@@ -1459,7 +1459,7 @@
         <v>2000</v>
       </c>
       <c r="O20" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -1485,22 +1485,22 @@
         <v>1.32</v>
       </c>
       <c r="G21" t="n">
-        <v>7018964.403628038</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H21" t="n">
-        <v>133.9958164102094</v>
+        <v>51.12295111925128</v>
       </c>
       <c r="I21" t="n">
-        <v>6895299.718880384</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J21" t="n">
-        <v>123664.6847476543</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0436</v>
+        <v>0.0461</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2763</v>
+        <v>0.101</v>
       </c>
       <c r="M21" t="n">
         <v>1500</v>
@@ -1509,7 +1509,7 @@
         <v>2000</v>
       </c>
       <c r="O21" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -1535,22 +1535,22 @@
         <v>1.41</v>
       </c>
       <c r="G22" t="n">
-        <v>7825811.998415833</v>
+        <v>1458377.232148911</v>
       </c>
       <c r="H22" t="n">
-        <v>147.4946619139004</v>
+        <v>51.12295111925128</v>
       </c>
       <c r="I22" t="n">
-        <v>7715639.964505017</v>
+        <v>1344745.458720702</v>
       </c>
       <c r="J22" t="n">
-        <v>110172.0339108169</v>
+        <v>113631.7734282086</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0414</v>
+        <v>0.0461</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3081</v>
+        <v>0.101</v>
       </c>
       <c r="M22" t="n">
         <v>1500</v>
@@ -1559,7 +1559,7 @@
         <v>2000</v>
       </c>
       <c r="O22" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
